--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89590.18983687977</v>
+        <v>16179734.83400832</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89590.18983687977</v>
+        <v>16179734.83400832</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7212.629128765977</v>
+        <v>797749.9823980359</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7212.629128765977</v>
+        <v>797749.9823980359</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189327721.580133</v>
+        <v>48748052.28907414</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9545.558451597924</v>
+        <v>1135676.827760761</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18169.30777448613</v>
+        <v>2107974.916105049</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26757.24516598584</v>
+        <v>3080273.004449338</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35463.61857138834</v>
+        <v>4054580.808435632</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44164.27401910032</v>
+        <v>5028538.606248186</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52914.00589717955</v>
+        <v>6002496.404060739</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61593.50375455715</v>
+        <v>6976454.201873289</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70328.80687270877</v>
+        <v>7950411.999685841</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79133.11232208896</v>
+        <v>8881563.155648107</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87653.87269513519</v>
+        <v>9859376.786648605</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96155.33382712849</v>
+        <v>10831395.52221609</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104507.3739562008</v>
+        <v>11802152.6175493</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112864.7800568762</v>
+        <v>12773149.48540136</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121611.7049203282</v>
+        <v>13681888.39397277</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130868.6214828925</v>
+        <v>14538330.67669778</v>
       </c>
     </row>
   </sheetData>
@@ -27040,22 +27040,22 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>374</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
